--- a/data-raw/IPCA MENSAL 2007-2019.xlsx
+++ b/data-raw/IPCA MENSAL 2007-2019.xlsx
@@ -1660,15 +1660,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BV2" sqref="BV2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
